--- a/pythonPytest-1/excel_data_reading/test_data.xlsx
+++ b/pythonPytest-1/excel_data_reading/test_data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhb68\PycharmProjects\pythonPytest-1\excel_data_reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD1FA7-6E25-4FE9-932D-31E49A82E1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED147B-FED1-4093-A411-BD2A50425F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3638" yWindow="720" windowWidth="16875" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_test-1" sheetId="1" r:id="rId1"/>
     <sheet name="add_test" sheetId="2" r:id="rId2"/>
+    <sheet name="add_test (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="tblCorporate" localSheetId="1">add_test!$A$1:$G$6</definedName>
+    <definedName name="tblCorporate" localSheetId="2">'add_test (2)'!$A$1:$G$6</definedName>
     <definedName name="tblCorporate">'add_test-1'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>CorporateID</t>
   </si>
@@ -508,7 +510,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -667,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681B1A2F-AABF-416D-A256-015A898DC4F5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -771,4 +773,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480924A9-D3B4-4BF5-9031-20DAF851EBE4}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>